--- a/natmiOut/OldD7/LR-pairs_lrc2p/Ncam1-Gfra1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Ncam1-Gfra1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,13 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>5.05111219215877</v>
+        <v>1.182981</v>
       </c>
       <c r="H2">
-        <v>5.05111219215877</v>
+        <v>3.548943</v>
       </c>
       <c r="I2">
-        <v>0.1405894574353136</v>
+        <v>0.02832403852590813</v>
       </c>
       <c r="J2">
-        <v>0.1405894574353136</v>
+        <v>0.02832403852590813</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>20.2786966882823</v>
+        <v>0.3392376666666667</v>
       </c>
       <c r="N2">
-        <v>20.2786966882823</v>
+        <v>1.017713</v>
       </c>
       <c r="O2">
-        <v>0.8594796103581972</v>
+        <v>0.01394884456468018</v>
       </c>
       <c r="P2">
-        <v>0.8594796103581972</v>
+        <v>0.01394884456468017</v>
       </c>
       <c r="Q2">
-        <v>102.4299720832724</v>
+        <v>0.4013117141510001</v>
       </c>
       <c r="R2">
-        <v>102.4299720832724</v>
+        <v>3.611805427359001</v>
       </c>
       <c r="S2">
-        <v>0.1208337720969737</v>
+        <v>0.0003950876108419055</v>
       </c>
       <c r="T2">
-        <v>0.1208337720969737</v>
+        <v>0.0003950876108419054</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,123 +584,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>5.05111219215877</v>
+        <v>1.182981</v>
       </c>
       <c r="H3">
-        <v>5.05111219215877</v>
+        <v>3.548943</v>
       </c>
       <c r="I3">
-        <v>0.1405894574353136</v>
+        <v>0.02832403852590813</v>
       </c>
       <c r="J3">
-        <v>0.1405894574353136</v>
+        <v>0.02832403852590813</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.31546010600272</v>
+        <v>20.328499</v>
       </c>
       <c r="N3">
-        <v>3.31546010600272</v>
+        <v>60.985497</v>
       </c>
       <c r="O3">
-        <v>0.1405203896418028</v>
+        <v>0.8358714277529804</v>
       </c>
       <c r="P3">
-        <v>0.1405203896418028</v>
+        <v>0.8358714277529804</v>
       </c>
       <c r="Q3">
-        <v>16.74676096404635</v>
+        <v>24.048228075519</v>
       </c>
       <c r="R3">
-        <v>16.74676096404635</v>
+        <v>216.434052679671</v>
       </c>
       <c r="S3">
-        <v>0.01975568533833991</v>
+        <v>0.02367525452238125</v>
       </c>
       <c r="T3">
-        <v>0.01975568533833991</v>
+        <v>0.02367525452238125</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>30.876988565203</v>
+        <v>1.182981</v>
       </c>
       <c r="H4">
-        <v>30.876988565203</v>
+        <v>3.548943</v>
       </c>
       <c r="I4">
-        <v>0.8594105425646864</v>
+        <v>0.02832403852590813</v>
       </c>
       <c r="J4">
-        <v>0.8594105425646864</v>
+        <v>0.02832403852590813</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.2786966882823</v>
+        <v>3.65239</v>
       </c>
       <c r="N4">
-        <v>20.2786966882823</v>
+        <v>10.95717</v>
       </c>
       <c r="O4">
-        <v>0.8594796103581972</v>
+        <v>0.1501797276823394</v>
       </c>
       <c r="P4">
-        <v>0.8594796103581972</v>
+        <v>0.1501797276823394</v>
       </c>
       <c r="Q4">
-        <v>626.1450857613124</v>
+        <v>4.32070797459</v>
       </c>
       <c r="R4">
-        <v>626.1450857613124</v>
+        <v>38.88637177131</v>
       </c>
       <c r="S4">
-        <v>0.7386458382612235</v>
+        <v>0.004253696392684973</v>
       </c>
       <c r="T4">
-        <v>0.7386458382612235</v>
+        <v>0.004253696392684971</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -702,61 +708,557 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>5.178030666666667</v>
+      </c>
+      <c r="H5">
+        <v>15.534092</v>
+      </c>
+      <c r="I5">
+        <v>0.1239772575307637</v>
+      </c>
+      <c r="J5">
+        <v>0.1239772575307637</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.3392376666666667</v>
+      </c>
+      <c r="N5">
+        <v>1.017713</v>
+      </c>
+      <c r="O5">
+        <v>0.01394884456468018</v>
+      </c>
+      <c r="P5">
+        <v>0.01394884456468017</v>
+      </c>
+      <c r="Q5">
+        <v>1.756583041288445</v>
+      </c>
+      <c r="R5">
+        <v>15.809247371596</v>
+      </c>
+      <c r="S5">
+        <v>0.001729339494851948</v>
+      </c>
+      <c r="T5">
+        <v>0.001729339494851948</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>5.178030666666667</v>
+      </c>
+      <c r="H6">
+        <v>15.534092</v>
+      </c>
+      <c r="I6">
+        <v>0.1239772575307637</v>
+      </c>
+      <c r="J6">
+        <v>0.1239772575307637</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>20.328499</v>
+      </c>
+      <c r="N6">
+        <v>60.985497</v>
+      </c>
+      <c r="O6">
+        <v>0.8358714277529804</v>
+      </c>
+      <c r="P6">
+        <v>0.8358714277529804</v>
+      </c>
+      <c r="Q6">
+        <v>105.2615912293027</v>
+      </c>
+      <c r="R6">
+        <v>947.354321063724</v>
+      </c>
+      <c r="S6">
+        <v>0.1036290472611384</v>
+      </c>
+      <c r="T6">
+        <v>0.1036290472611384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5.178030666666667</v>
+      </c>
+      <c r="H7">
+        <v>15.534092</v>
+      </c>
+      <c r="I7">
+        <v>0.1239772575307637</v>
+      </c>
+      <c r="J7">
+        <v>0.1239772575307637</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3.65239</v>
+      </c>
+      <c r="N7">
+        <v>10.95717</v>
+      </c>
+      <c r="O7">
+        <v>0.1501797276823394</v>
+      </c>
+      <c r="P7">
+        <v>0.1501797276823394</v>
+      </c>
+      <c r="Q7">
+        <v>18.91218742662667</v>
+      </c>
+      <c r="R7">
+        <v>170.20968683964</v>
+      </c>
+      <c r="S7">
+        <v>0.01861887077477336</v>
+      </c>
+      <c r="T7">
+        <v>0.01861887077477335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.089474</v>
+      </c>
+      <c r="H8">
+        <v>0.268422</v>
+      </c>
+      <c r="I8">
+        <v>0.002142270267288404</v>
+      </c>
+      <c r="J8">
+        <v>0.002142270267288404</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.3392376666666667</v>
+      </c>
+      <c r="N8">
+        <v>1.017713</v>
+      </c>
+      <c r="O8">
+        <v>0.01394884456468018</v>
+      </c>
+      <c r="P8">
+        <v>0.01394884456468017</v>
+      </c>
+      <c r="Q8">
+        <v>0.03035295098733334</v>
+      </c>
+      <c r="R8">
+        <v>0.273176558886</v>
+      </c>
+      <c r="S8">
+        <v>2.98821949739418E-05</v>
+      </c>
+      <c r="T8">
+        <v>2.988219497394179E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.089474</v>
+      </c>
+      <c r="H9">
+        <v>0.268422</v>
+      </c>
+      <c r="I9">
+        <v>0.002142270267288404</v>
+      </c>
+      <c r="J9">
+        <v>0.002142270267288404</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>20.328499</v>
+      </c>
+      <c r="N9">
+        <v>60.985497</v>
+      </c>
+      <c r="O9">
+        <v>0.8358714277529804</v>
+      </c>
+      <c r="P9">
+        <v>0.8358714277529804</v>
+      </c>
+      <c r="Q9">
+        <v>1.818872119526</v>
+      </c>
+      <c r="R9">
+        <v>16.369849075734</v>
+      </c>
+      <c r="S9">
+        <v>0.001790662506951117</v>
+      </c>
+      <c r="T9">
+        <v>0.001790662506951117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.089474</v>
+      </c>
+      <c r="H10">
+        <v>0.268422</v>
+      </c>
+      <c r="I10">
+        <v>0.002142270267288404</v>
+      </c>
+      <c r="J10">
+        <v>0.002142270267288404</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.65239</v>
+      </c>
+      <c r="N10">
+        <v>10.95717</v>
+      </c>
+      <c r="O10">
+        <v>0.1501797276823394</v>
+      </c>
+      <c r="P10">
+        <v>0.1501797276823394</v>
+      </c>
+      <c r="Q10">
+        <v>0.32679394286</v>
+      </c>
+      <c r="R10">
+        <v>2.94114548574</v>
+      </c>
+      <c r="S10">
+        <v>0.0003217255653633449</v>
+      </c>
+      <c r="T10">
+        <v>0.0003217255653633448</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>35.31548633333333</v>
+      </c>
+      <c r="H11">
+        <v>105.946459</v>
+      </c>
+      <c r="I11">
+        <v>0.8455564336760397</v>
+      </c>
+      <c r="J11">
+        <v>0.8455564336760397</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.3392376666666667</v>
+      </c>
+      <c r="N11">
+        <v>1.017713</v>
+      </c>
+      <c r="O11">
+        <v>0.01394884456468018</v>
+      </c>
+      <c r="P11">
+        <v>0.01394884456468017</v>
+      </c>
+      <c r="Q11">
+        <v>11.98034318091856</v>
+      </c>
+      <c r="R11">
+        <v>107.823088628267</v>
+      </c>
+      <c r="S11">
+        <v>0.01179453526401238</v>
+      </c>
+      <c r="T11">
+        <v>0.01179453526401238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>30.876988565203</v>
-      </c>
-      <c r="H5">
-        <v>30.876988565203</v>
-      </c>
-      <c r="I5">
-        <v>0.8594105425646864</v>
-      </c>
-      <c r="J5">
-        <v>0.8594105425646864</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>3.31546010600272</v>
-      </c>
-      <c r="N5">
-        <v>3.31546010600272</v>
-      </c>
-      <c r="O5">
-        <v>0.1405203896418028</v>
-      </c>
-      <c r="P5">
-        <v>0.1405203896418028</v>
-      </c>
-      <c r="Q5">
-        <v>102.3714237814327</v>
-      </c>
-      <c r="R5">
-        <v>102.3714237814327</v>
-      </c>
-      <c r="S5">
-        <v>0.1207647043034629</v>
-      </c>
-      <c r="T5">
-        <v>0.1207647043034629</v>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>35.31548633333333</v>
+      </c>
+      <c r="H12">
+        <v>105.946459</v>
+      </c>
+      <c r="I12">
+        <v>0.8455564336760397</v>
+      </c>
+      <c r="J12">
+        <v>0.8455564336760397</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>20.328499</v>
+      </c>
+      <c r="N12">
+        <v>60.985497</v>
+      </c>
+      <c r="O12">
+        <v>0.8358714277529804</v>
+      </c>
+      <c r="P12">
+        <v>0.8358714277529804</v>
+      </c>
+      <c r="Q12">
+        <v>717.9108286116802</v>
+      </c>
+      <c r="R12">
+        <v>6461.197457505123</v>
+      </c>
+      <c r="S12">
+        <v>0.7067764634625096</v>
+      </c>
+      <c r="T12">
+        <v>0.7067764634625096</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>35.31548633333333</v>
+      </c>
+      <c r="H13">
+        <v>105.946459</v>
+      </c>
+      <c r="I13">
+        <v>0.8455564336760397</v>
+      </c>
+      <c r="J13">
+        <v>0.8455564336760397</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.65239</v>
+      </c>
+      <c r="N13">
+        <v>10.95717</v>
+      </c>
+      <c r="O13">
+        <v>0.1501797276823394</v>
+      </c>
+      <c r="P13">
+        <v>0.1501797276823394</v>
+      </c>
+      <c r="Q13">
+        <v>128.9859291290033</v>
+      </c>
+      <c r="R13">
+        <v>1160.87336216103</v>
+      </c>
+      <c r="S13">
+        <v>0.1269854349495177</v>
+      </c>
+      <c r="T13">
+        <v>0.1269854349495177</v>
       </c>
     </row>
   </sheetData>
